--- a/Results.xlsx
+++ b/Results.xlsx
@@ -699,10 +699,10 @@
         <v>0.800000011920929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4366429150104523</v>
+        <v>0.4480368793010712</v>
       </c>
       <c r="D2" t="n">
-        <v>3.638690948486328</v>
+        <v>3.733640670776367</v>
       </c>
     </row>
   </sheetData>
